--- a/progress/cloudGate接口开发进度表.xlsx
+++ b/progress/cloudGate接口开发进度表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanux/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanux/cloudGate/progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="-3260" yWindow="460" windowWidth="31960" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="128">
   <si>
     <t>模块名</t>
     <rPh sb="0" eb="1">
@@ -344,10 +344,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/v3/groups/{group_id}/users</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/v2/networks</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -543,16 +539,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未完成，API对不上</t>
-    <rPh sb="0" eb="1">
-      <t>wei wan cheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dui bu shang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿里缺失API</t>
     <rPh sb="0" eb="1">
       <t>a</t>
@@ -585,6 +571,278 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v3/policies/{policy_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openstack api创建policy没有提供policyname字段，阿里云创建时此字段必须。  阿里云其他接口也必须依赖policyname索引等。故认为无法实现</t>
+    <rPh sb="13" eb="14">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zi duan</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>a li yun</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zi duan</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>a li</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>yun</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>yi lai</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>suo yin</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ren wei</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>shi xian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程通，阿里缺少enable字段</t>
+    <rPh sb="0" eb="1">
+      <t>liu cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>a li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>que shao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ziduan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可创建用户，但opestack api缺失一些字段，如手机号</t>
+    <rPh sb="0" eb="1">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>queshi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>g</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>hxf</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ziduan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>vk</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shoujihao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云不支持通过user_id索引用户信息，将username转换 成user_id</t>
+    <rPh sb="0" eb="1">
+      <t>a li yun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bu zhi chi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>suoyin</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xinxi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>zhuanhuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些字段无法更新</t>
+    <rPh sb="0" eb="1">
+      <t>you xie</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里缺失修改密码api</t>
+    <rPh sb="0" eb="1">
+      <t>a li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>que shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mi ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里创建角色必须绑定策略文档，（目前写死）</t>
+    <rPh sb="0" eb="1">
+      <t>a li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jue se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bang ding</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ce lue</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wen dang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mu qian</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xie si</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里仅能更新策略文档</t>
+    <rPh sb="0" eb="1">
+      <t>a li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin neng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ce lue</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen dang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将rolename当作roleid可以删除</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dang zuo</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shan chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程不通，API对不上</t>
+    <rPh sb="0" eb="1">
+      <t>liu cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dui bu shang</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -656,12 +914,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -684,6 +936,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -699,36 +957,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1011,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1046,487 +1307,535 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10"/>
+      <c r="F2" s="16"/>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="3"/>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="11"/>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="F3" s="16"/>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="16"/>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="F4" s="16"/>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="F5" s="16"/>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="F6" s="3"/>
+      <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="F7" s="4"/>
+      <c r="G7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
+      <c r="F9" s="16"/>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
       <c r="D10" t="s">
         <v>5</v>
       </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" t="s">
         <v>8</v>
       </c>
+      <c r="F12" s="4"/>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="D13" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="16"/>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
       <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="6" t="s">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5" t="s">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="11"/>
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="5" t="s">
-        <v>72</v>
+      <c r="F24" s="3"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="11"/>
       <c r="D26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="5"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="5"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="1"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D60" t="s">
@@ -1534,17 +1843,17 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="11"/>
       <c r="D61" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="6" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D62" t="s">
@@ -1552,9 +1861,9 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="4"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="5" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D63" t="s">
@@ -1562,25 +1871,25 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="4"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="11"/>
       <c r="D64" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="5"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="11"/>
       <c r="D65" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="4"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="5" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D66" t="s">
@@ -1588,68 +1897,68 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="4"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="11"/>
       <c r="D67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="4"/>
-      <c r="B77" s="1" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D77" t="s">
@@ -1657,17 +1966,17 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="4"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="5"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
       <c r="D78" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="4"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="6" t="s">
+      <c r="A79" s="13"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D79" t="s">
@@ -1675,9 +1984,9 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="4"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="5" t="s">
+      <c r="A80" s="13"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D80" t="s">
@@ -1685,25 +1994,25 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="4"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="5"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="11"/>
       <c r="D81" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="4"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="5"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="11"/>
       <c r="D82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="5" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D83" t="s">
@@ -1711,21 +2020,21 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="4"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
       <c r="D84" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D85" t="s">
@@ -1733,17 +2042,17 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="5"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="11"/>
       <c r="D86" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="5" t="s">
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D87" t="s">
@@ -1751,33 +2060,33 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="5"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="11"/>
       <c r="D88" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="5"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="11"/>
       <c r="D89" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="5"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="11"/>
       <c r="D90" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="6" t="s">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D91" t="s">
@@ -1785,9 +2094,9 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="6" t="s">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D92" t="s">
@@ -1795,9 +2104,9 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="5" t="s">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D93" t="s">
@@ -1805,459 +2114,504 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="5"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="11"/>
       <c r="D94" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>73</v>
+      <c r="A95" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="5"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="11"/>
       <c r="D96" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="5"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="11"/>
       <c r="D97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="11" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="5"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="11"/>
       <c r="D99" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="5"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="11"/>
       <c r="D100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>78</v>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="11"/>
       <c r="D102" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="11"/>
       <c r="D103" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="5" t="s">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" t="s">
         <v>79</v>
       </c>
-      <c r="D104" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="5"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="11"/>
       <c r="D105" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="5"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="11"/>
       <c r="D106" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>82</v>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="5"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="11"/>
       <c r="D108" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="5"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="11"/>
       <c r="D109" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="5" t="s">
-        <v>83</v>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="5"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="11"/>
       <c r="D111" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="5"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="11"/>
       <c r="D112" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="7"/>
-      <c r="B113" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>85</v>
+      <c r="A113" s="8"/>
+      <c r="B113" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="7"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="8"/>
       <c r="D114" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="7"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="7" t="s">
-        <v>86</v>
+      <c r="A115" s="8"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="7"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="7"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="8"/>
       <c r="D116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="8"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="8"/>
+      <c r="D117" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="7"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="7"/>
-      <c r="D117" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="8"/>
+      <c r="B118" s="9"/>
+      <c r="C118" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="7"/>
-      <c r="B118" s="8"/>
-      <c r="C118" t="s">
-        <v>89</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="7"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7" t="s">
+      <c r="A119" s="8"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" t="s">
         <v>90</v>
       </c>
-      <c r="D119" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="7"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="7"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="8"/>
       <c r="D120" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="7"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7" t="s">
+      <c r="A121" s="8"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D121" t="s">
         <v>92</v>
       </c>
-      <c r="D121" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="7"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="7"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="8"/>
       <c r="D122" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="7"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="8"/>
       <c r="D123" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="7"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="7" t="s">
-        <v>94</v>
+      <c r="A124" s="8"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="7"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="7"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="8"/>
       <c r="D125" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="7"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="7" t="s">
-        <v>96</v>
+      <c r="A126" s="8"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D126" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="7"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="8"/>
       <c r="D127" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="7"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="7"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="8"/>
       <c r="D128" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="7"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="7" t="s">
-        <v>98</v>
+      <c r="A129" s="8"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="7"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="7"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="8"/>
       <c r="D130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="7"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="7" t="s">
+      <c r="A131" s="8"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" t="s">
         <v>99</v>
       </c>
-      <c r="D131" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="7"/>
-      <c r="B132" s="8"/>
-      <c r="C132" s="7"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="8"/>
       <c r="D132" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="7"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="7"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="8"/>
       <c r="D133" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="7"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="9"/>
       <c r="C134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="8"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="D134" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="7"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="D135" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="7"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="7"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="8"/>
       <c r="D136" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="7"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="7"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="8"/>
       <c r="D137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>107</v>
+      <c r="A138" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="7"/>
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="8"/>
       <c r="D139" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="7"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="8"/>
       <c r="D140" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="7" t="s">
-        <v>108</v>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D141" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="7"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="8"/>
       <c r="D142" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="7"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="8"/>
       <c r="D143" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="61">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="A60:A84"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C34:C59"/>
+    <mergeCell ref="B34:B59"/>
+    <mergeCell ref="A28:A59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B77:B84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="A85:A94"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B101:B106"/>
     <mergeCell ref="C135:C137"/>
     <mergeCell ref="B113:B137"/>
     <mergeCell ref="A95:A137"/>
@@ -2274,50 +2628,6 @@
     <mergeCell ref="C107:C109"/>
     <mergeCell ref="C110:C112"/>
     <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B85:B94"/>
-    <mergeCell ref="A85:A94"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B77:B84"/>
-    <mergeCell ref="C34:C59"/>
-    <mergeCell ref="B34:B59"/>
-    <mergeCell ref="A28:A59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="A60:A84"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
